--- a/data/230623_Kinetics_DA/compiled.xlsx
+++ b/data/230623_Kinetics_DA/compiled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ECFERS\data\230623_Kinetics_DA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA485D-AF1A-476D-A277-BE9AA26CD806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63506D9-7007-45E1-B5C8-BEC19C5F2388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19035" windowHeight="19155" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mal" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="274">
   <si>
     <t>empty_480</t>
   </si>
@@ -533,42 +533,6 @@
     <t>489315.48</t>
   </si>
   <si>
-    <t>1647767.38</t>
-  </si>
-  <si>
-    <t>867101.06</t>
-  </si>
-  <si>
-    <t>772065.24</t>
-  </si>
-  <si>
-    <t>387192.52</t>
-  </si>
-  <si>
-    <t>1390646.14</t>
-  </si>
-  <si>
-    <t>910960.99</t>
-  </si>
-  <si>
-    <t>1980057.98</t>
-  </si>
-  <si>
-    <t>1165810.34</t>
-  </si>
-  <si>
-    <t>1074006.65</t>
-  </si>
-  <si>
-    <t>1693836.00</t>
-  </si>
-  <si>
-    <t>1505026.93</t>
-  </si>
-  <si>
-    <t>1223425.31</t>
-  </si>
-  <si>
     <t>461977</t>
   </si>
   <si>
@@ -804,6 +768,99 @@
   </si>
   <si>
     <t>241556</t>
+  </si>
+  <si>
+    <t>101676.50</t>
+  </si>
+  <si>
+    <t>107916.59</t>
+  </si>
+  <si>
+    <t>88283.71</t>
+  </si>
+  <si>
+    <t>93341.72</t>
+  </si>
+  <si>
+    <t>86212.23</t>
+  </si>
+  <si>
+    <t>87268.58</t>
+  </si>
+  <si>
+    <t>97150.39</t>
+  </si>
+  <si>
+    <t>92384.83</t>
+  </si>
+  <si>
+    <t>89869.54</t>
+  </si>
+  <si>
+    <t>85458.65</t>
+  </si>
+  <si>
+    <t>89332.23</t>
+  </si>
+  <si>
+    <t>53461.25</t>
+  </si>
+  <si>
+    <t>52303.21</t>
+  </si>
+  <si>
+    <t>61121.67</t>
+  </si>
+  <si>
+    <t>55829.47</t>
+  </si>
+  <si>
+    <t>64523.43</t>
+  </si>
+  <si>
+    <t>67176.69</t>
+  </si>
+  <si>
+    <t>84146.68</t>
+  </si>
+  <si>
+    <t>83985.28</t>
+  </si>
+  <si>
+    <t>1798575.64</t>
+  </si>
+  <si>
+    <t>2086870.62</t>
+  </si>
+  <si>
+    <t>1034372.88</t>
+  </si>
+  <si>
+    <t>1524586.58</t>
+  </si>
+  <si>
+    <t>1078913.78</t>
+  </si>
+  <si>
+    <t>1389283.37</t>
+  </si>
+  <si>
+    <t>579506.45</t>
+  </si>
+  <si>
+    <t>2109495.33</t>
+  </si>
+  <si>
+    <t>1641510.42</t>
+  </si>
+  <si>
+    <t>1688190.09</t>
+  </si>
+  <si>
+    <t>1101512.82</t>
+  </si>
+  <si>
+    <t>1739291.84</t>
   </si>
 </sst>
 </file>
@@ -862,7 +919,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2071,86 +2132,213 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
+      <c r="B17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +2375,7 @@
         <v>340322</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2195,10 +2383,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2206,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2217,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2228,10 +2416,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2239,10 +2427,10 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2250,7 +2438,7 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2258,10 +2446,10 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,10 +2457,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,10 +2468,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2291,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2302,10 +2490,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2313,10 +2501,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,10 +2512,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2335,10 +2523,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,10 +2534,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
@@ -2383,10 +2571,10 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,10 +2582,10 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,10 +2593,10 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,10 +2615,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,10 +2626,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,10 +2637,10 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,7 +2648,7 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2468,10 +2656,10 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2482,7 +2670,7 @@
         <v>6013398</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2490,10 +2678,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2501,10 +2689,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2512,10 +2700,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2523,10 +2711,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2534,10 +2722,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2545,10 +2733,10 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,10 +2744,10 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2567,10 +2755,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2578,10 +2766,10 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2589,10 +2777,10 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2600,10 +2788,10 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2611,10 +2799,10 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2622,10 +2810,10 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2633,10 +2821,10 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2644,7 +2832,7 @@
         <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2652,10 +2840,10 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
